--- a/Output/April/productivity_TL_valid/productivity_TL_2022-04-01_valid.xlsx
+++ b/Output/April/productivity_TL_valid/productivity_TL_2022-04-01_valid.xlsx
@@ -934,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U6">
-        <v>0.03448275862068965</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -993,13 +993,13 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="U7">
-        <v>0.03703703703703703</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1465,13 +1465,13 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T15">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U15">
-        <v>0.1290322580645161</v>
+        <v>0.1470588235294118</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -2172,13 +2172,13 @@
         <v>9.25</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H4">
-        <v>0.08333333333333333</v>
+        <v>0.1044776119402985</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2276,13 +2276,13 @@
         <v>3.133333333333333</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>0.03703703703703703</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2481,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.08333333333333333</v>
+        <v>0.1044776119402985</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2537,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.03703703703703703</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2685,7 +2685,7 @@
         <v>55</v>
       </c>
       <c r="D4">
-        <v>0.08333333333333333</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2753,7 +2753,7 @@
         <v>55</v>
       </c>
       <c r="D8">
-        <v>0.03703703703703703</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E8">
         <v>1</v>
